--- a/Completeness.xlsx
+++ b/Completeness.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\Master's Thesis\tla-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2B4E67-4D7E-445E-80B5-65A2971A4CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF725BD1-A0D1-4B2D-B6F6-78A70A74B278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B9FE4FDB-8EAF-486F-BFB8-181A4F496EA0}"/>
+    <workbookView xWindow="-23136" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{B9FE4FDB-8EAF-486F-BFB8-181A4F496EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1112">
   <si>
     <t>Function</t>
   </si>
@@ -3175,12 +3176,219 @@
   <si>
     <t>Tuple conversion</t>
   </si>
+  <si>
+    <t>~~~</t>
+  </si>
+  <si>
+    <t>minus minus minus</t>
+  </si>
+  <si>
+    <t>plius plius plius</t>
+  </si>
+  <si>
+    <t>&lt;|&gt;</t>
+  </si>
+  <si>
+    <t>&lt;~&gt;</t>
+  </si>
+  <si>
+    <t>~&gt;</t>
+  </si>
+  <si>
+    <t>&lt;~</t>
+  </si>
+  <si>
+    <t>~&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;~</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&amp;&amp;&amp;</t>
+  </si>
+  <si>
+    <t>|||</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>!==</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>lygu lygu lyg</t>
+  </si>
+  <si>
+    <t>lygu lygu</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>&lt;-</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>lygu &gt;</t>
+  </si>
+  <si>
+    <t>::</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>lygu tilde</t>
+  </si>
+  <si>
+    <t>|&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>not in</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>minus minus</t>
+  </si>
+  <si>
+    <t>plius plius</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Sigils</t>
+  </si>
+  <si>
+    <t>Left to right arrow</t>
+  </si>
+  <si>
+    <t>Blocks</t>
+  </si>
+  <si>
+    <t>Aliases</t>
+  </si>
+  <si>
+    <t>Qualified calls</t>
+  </si>
+  <si>
+    <t>Non-qualified calls</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Expressions</t>
+  </si>
+  <si>
+    <t>Structs</t>
+  </si>
+  <si>
+    <t>Keyword lists</t>
+  </si>
+  <si>
+    <t>Maps</t>
+  </si>
+  <si>
+    <t>Binaries</t>
+  </si>
+  <si>
+    <t>Tuples</t>
+  </si>
+  <si>
+    <t>Covered</t>
+  </si>
+  <si>
+    <t>Lists</t>
+  </si>
+  <si>
+    <t>Charlists</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>Atoms</t>
+  </si>
+  <si>
+    <t>Numbers</t>
+  </si>
+  <si>
+    <t>Data types</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3203,6 +3411,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3221,17 +3437,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3239,10 +3458,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -3558,8 +3778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A38BF98-5114-422B-A8DC-498DAD4613A6}">
   <dimension ref="A1:G1276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3571,10 +3791,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -3582,11 +3802,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="G2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="G2" s="5" t="s">
         <v>894</v>
       </c>
     </row>
@@ -3597,7 +3817,7 @@
       <c r="B3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3613,7 +3833,7 @@
         <f>COUNTIF(A:B, "TRUE")</f>
         <v>40</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3629,7 +3849,7 @@
         <f>COUNTIF(A:B, "FALSE")</f>
         <v>1174</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3641,11 +3861,11 @@
       <c r="D6" t="s">
         <v>974</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <f>E4/E5</f>
         <v>3.4071550255536626E-2</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3654,7 +3874,7 @@
       <c r="B7" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3663,7 +3883,7 @@
       <c r="B8" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3672,7 +3892,7 @@
       <c r="B9" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3681,7 +3901,7 @@
       <c r="B10" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -4836,10 +5056,10 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B155" s="1"/>
+      <c r="B155" s="4"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -4858,10 +5078,10 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B158" s="1"/>
+      <c r="B158" s="4"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
@@ -4984,10 +5204,10 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B174" s="1"/>
+      <c r="B174" s="4"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
@@ -5070,10 +5290,10 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B185" s="1"/>
+      <c r="B185" s="4"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
@@ -5324,10 +5544,10 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B217" s="1"/>
+      <c r="B217" s="4"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
@@ -5442,10 +5662,10 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B232" s="1"/>
+      <c r="B232" s="4"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
@@ -5528,10 +5748,10 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B243" s="1"/>
+      <c r="A243" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B243" s="4"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
@@ -5566,10 +5786,10 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B248" s="1"/>
+      <c r="B248" s="4"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
@@ -5652,10 +5872,10 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B259" s="1"/>
+      <c r="B259" s="4"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
@@ -5866,10 +6086,10 @@
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B286" s="1"/>
+      <c r="B286" s="4"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
@@ -6056,10 +6276,10 @@
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+      <c r="A310" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B310" s="1"/>
+      <c r="B310" s="4"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
@@ -6094,10 +6314,10 @@
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
+      <c r="A315" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B315" s="1"/>
+      <c r="B315" s="4"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
@@ -6236,10 +6456,10 @@
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
+      <c r="A333" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B333" s="1"/>
+      <c r="B333" s="4"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
@@ -6642,10 +6862,10 @@
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
+      <c r="A384" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B384" s="1"/>
+      <c r="B384" s="4"/>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
@@ -6792,10 +7012,10 @@
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="1" t="s">
+      <c r="A403" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B403" s="1"/>
+      <c r="B403" s="4"/>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
@@ -6854,10 +7074,10 @@
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="s">
+      <c r="A411" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B411" s="1"/>
+      <c r="B411" s="4"/>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
@@ -7012,10 +7232,10 @@
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" s="1" t="s">
+      <c r="A431" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B431" s="1"/>
+      <c r="B431" s="4"/>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
@@ -7090,10 +7310,10 @@
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="s">
+      <c r="A441" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B441" s="1"/>
+      <c r="B441" s="4"/>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
@@ -7200,10 +7420,10 @@
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" s="1" t="s">
+      <c r="A455" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B455" s="1"/>
+      <c r="B455" s="4"/>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
@@ -7894,10 +8114,10 @@
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542" s="1" t="s">
+      <c r="A542" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B542" s="1"/>
+      <c r="B542" s="4"/>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
@@ -8228,10 +8448,10 @@
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584" s="1" t="s">
+      <c r="A584" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B584" s="1"/>
+      <c r="B584" s="4"/>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
@@ -8522,10 +8742,10 @@
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A621" s="1" t="s">
+      <c r="A621" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B621" s="1"/>
+      <c r="B621" s="4"/>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
@@ -8808,13 +9028,13 @@
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" s="1" t="s">
+      <c r="A657" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B657" s="1"/>
+      <c r="B657" s="4"/>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658" s="2" t="s">
+      <c r="A658" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B658" t="b">
@@ -8950,10 +9170,10 @@
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A675" s="1" t="s">
+      <c r="A675" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B675" s="1"/>
+      <c r="B675" s="4"/>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
@@ -8996,10 +9216,10 @@
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A681" s="1" t="s">
+      <c r="A681" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B681" s="1"/>
+      <c r="B681" s="4"/>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
@@ -9346,10 +9566,10 @@
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A725" s="1" t="s">
+      <c r="A725" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B725" s="1"/>
+      <c r="B725" s="4"/>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
@@ -9816,10 +10036,10 @@
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A784" s="1" t="s">
+      <c r="A784" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="B784" s="1"/>
+      <c r="B784" s="4"/>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
@@ -9838,10 +10058,10 @@
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A787" s="1" t="s">
+      <c r="A787" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B787" s="1"/>
+      <c r="B787" s="4"/>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
@@ -9996,10 +10216,10 @@
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A807" s="1" t="s">
+      <c r="A807" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B807" s="1"/>
+      <c r="B807" s="4"/>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
@@ -10058,10 +10278,10 @@
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A815" s="1" t="s">
+      <c r="A815" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="B815" s="1"/>
+      <c r="B815" s="4"/>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
@@ -10224,10 +10444,10 @@
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A836" s="1" t="s">
+      <c r="A836" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="B836" s="1"/>
+      <c r="B836" s="4"/>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
@@ -10302,10 +10522,10 @@
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A846" s="1" t="s">
+      <c r="A846" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="B846" s="1"/>
+      <c r="B846" s="4"/>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
@@ -10348,10 +10568,10 @@
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A852" s="1" t="s">
+      <c r="A852" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B852" s="1"/>
+      <c r="B852" s="4"/>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
@@ -10722,10 +10942,10 @@
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A899" s="1" t="s">
+      <c r="A899" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="B899" s="1"/>
+      <c r="B899" s="4"/>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
@@ -10768,10 +10988,10 @@
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A905" s="1" t="s">
+      <c r="A905" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="B905" s="1"/>
+      <c r="B905" s="4"/>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
@@ -11006,10 +11226,10 @@
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A935" s="1" t="s">
+      <c r="A935" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="B935" s="1"/>
+      <c r="B935" s="4"/>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
@@ -11124,10 +11344,10 @@
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A950" s="1" t="s">
+      <c r="A950" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="B950" s="1"/>
+      <c r="B950" s="4"/>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
@@ -11338,10 +11558,10 @@
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A977" s="1" t="s">
+      <c r="A977" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="B977" s="1"/>
+      <c r="B977" s="4"/>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
@@ -11408,10 +11628,10 @@
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A986" s="1" t="s">
+      <c r="A986" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="B986" s="1"/>
+      <c r="B986" s="4"/>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
@@ -11446,10 +11666,10 @@
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A991" s="1" t="s">
+      <c r="A991" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="B991" s="1"/>
+      <c r="B991" s="4"/>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
@@ -11524,10 +11744,10 @@
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1001" s="1" t="s">
+      <c r="A1001" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="B1001" s="1"/>
+      <c r="B1001" s="4"/>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
@@ -11602,10 +11822,10 @@
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1011" s="1" t="s">
+      <c r="A1011" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="B1011" s="1"/>
+      <c r="B1011" s="4"/>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
@@ -11776,10 +11996,10 @@
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1033" s="1" t="s">
+      <c r="A1033" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="B1033" s="1"/>
+      <c r="B1033" s="4"/>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
@@ -11822,10 +12042,10 @@
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1039" s="1" t="s">
+      <c r="A1039" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="B1039" s="1"/>
+      <c r="B1039" s="4"/>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
@@ -12076,10 +12296,10 @@
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1071" s="1" t="s">
+      <c r="A1071" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="B1071" s="1"/>
+      <c r="B1071" s="4"/>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
@@ -12226,10 +12446,10 @@
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1090" s="1" t="s">
+      <c r="A1090" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="B1090" s="1"/>
+      <c r="B1090" s="4"/>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
@@ -12320,10 +12540,10 @@
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1102" s="1" t="s">
+      <c r="A1102" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="B1102" s="1"/>
+      <c r="B1102" s="4"/>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
@@ -12574,10 +12794,10 @@
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1134" s="1" t="s">
+      <c r="A1134" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="B1134" s="1"/>
+      <c r="B1134" s="4"/>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
@@ -12588,10 +12808,10 @@
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1136" s="1" t="s">
+      <c r="A1136" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="B1136" s="1"/>
+      <c r="B1136" s="4"/>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
@@ -12626,10 +12846,10 @@
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1141" s="1" t="s">
+      <c r="A1141" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="B1141" s="1"/>
+      <c r="B1141" s="4"/>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
@@ -12640,10 +12860,10 @@
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1143" s="1" t="s">
+      <c r="A1143" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="B1143" s="1"/>
+      <c r="B1143" s="4"/>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
@@ -12822,10 +13042,10 @@
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1166" s="1" t="s">
+      <c r="A1166" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="B1166" s="1"/>
+      <c r="B1166" s="4"/>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1167" t="s">
@@ -12852,10 +13072,10 @@
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1170" s="1" t="s">
+      <c r="A1170" s="4" t="s">
         <v>795</v>
       </c>
-      <c r="B1170" s="1"/>
+      <c r="B1170" s="4"/>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
@@ -12866,10 +13086,10 @@
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1172" s="1" t="s">
+      <c r="A1172" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="B1172" s="1"/>
+      <c r="B1172" s="4"/>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
@@ -12928,10 +13148,10 @@
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1180" s="1" t="s">
+      <c r="A1180" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="B1180" s="1"/>
+      <c r="B1180" s="4"/>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
@@ -12942,10 +13162,10 @@
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1182" s="1" t="s">
+      <c r="A1182" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="B1182" s="1"/>
+      <c r="B1182" s="4"/>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
@@ -13220,10 +13440,10 @@
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1217" s="1" t="s">
+      <c r="A1217" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="B1217" s="1"/>
+      <c r="B1217" s="4"/>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
@@ -13250,10 +13470,10 @@
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1221" s="1" t="s">
+      <c r="A1221" s="4" t="s">
         <v>846</v>
       </c>
-      <c r="B1221" s="1"/>
+      <c r="B1221" s="4"/>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
@@ -13296,10 +13516,10 @@
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1227" s="1" t="s">
+      <c r="A1227" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="B1227" s="1"/>
+      <c r="B1227" s="4"/>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
@@ -13582,10 +13802,10 @@
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1263" s="1" t="s">
+      <c r="A1263" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="B1263" s="1"/>
+      <c r="B1263" s="4"/>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
@@ -13693,6 +13913,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A657:B657"/>
+    <mergeCell ref="A333:B333"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="A384:B384"/>
+    <mergeCell ref="A403:B403"/>
+    <mergeCell ref="A411:B411"/>
+    <mergeCell ref="A431:B431"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="A315:B315"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A441:B441"/>
+    <mergeCell ref="A455:B455"/>
+    <mergeCell ref="A542:B542"/>
+    <mergeCell ref="A584:B584"/>
+    <mergeCell ref="A621:B621"/>
+    <mergeCell ref="A905:B905"/>
+    <mergeCell ref="A675:B675"/>
+    <mergeCell ref="A681:B681"/>
+    <mergeCell ref="A725:B725"/>
+    <mergeCell ref="A784:B784"/>
+    <mergeCell ref="A787:B787"/>
+    <mergeCell ref="A807:B807"/>
+    <mergeCell ref="A815:B815"/>
+    <mergeCell ref="A836:B836"/>
+    <mergeCell ref="A852:B852"/>
+    <mergeCell ref="A846:B846"/>
+    <mergeCell ref="A899:B899"/>
+    <mergeCell ref="A1039:B1039"/>
+    <mergeCell ref="A1071:B1071"/>
+    <mergeCell ref="A1090:B1090"/>
+    <mergeCell ref="A1102:B1102"/>
+    <mergeCell ref="A935:B935"/>
+    <mergeCell ref="A950:B950"/>
+    <mergeCell ref="A977:B977"/>
+    <mergeCell ref="A986:B986"/>
+    <mergeCell ref="A991:B991"/>
+    <mergeCell ref="A1001:B1001"/>
     <mergeCell ref="A1263:B1263"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1172:B1172"/>
@@ -13709,54 +13975,594 @@
     <mergeCell ref="A1170:B1170"/>
     <mergeCell ref="A1011:B1011"/>
     <mergeCell ref="A1033:B1033"/>
-    <mergeCell ref="A1039:B1039"/>
-    <mergeCell ref="A1071:B1071"/>
-    <mergeCell ref="A1090:B1090"/>
-    <mergeCell ref="A1102:B1102"/>
-    <mergeCell ref="A935:B935"/>
-    <mergeCell ref="A950:B950"/>
-    <mergeCell ref="A977:B977"/>
-    <mergeCell ref="A986:B986"/>
-    <mergeCell ref="A991:B991"/>
-    <mergeCell ref="A1001:B1001"/>
-    <mergeCell ref="A815:B815"/>
-    <mergeCell ref="A836:B836"/>
-    <mergeCell ref="A852:B852"/>
-    <mergeCell ref="A846:B846"/>
-    <mergeCell ref="A899:B899"/>
-    <mergeCell ref="A905:B905"/>
-    <mergeCell ref="A675:B675"/>
-    <mergeCell ref="A681:B681"/>
-    <mergeCell ref="A725:B725"/>
-    <mergeCell ref="A784:B784"/>
-    <mergeCell ref="A787:B787"/>
-    <mergeCell ref="A807:B807"/>
-    <mergeCell ref="A441:B441"/>
-    <mergeCell ref="A455:B455"/>
-    <mergeCell ref="A542:B542"/>
-    <mergeCell ref="A584:B584"/>
-    <mergeCell ref="A621:B621"/>
-    <mergeCell ref="A657:B657"/>
-    <mergeCell ref="A333:B333"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="A384:B384"/>
-    <mergeCell ref="A403:B403"/>
-    <mergeCell ref="A411:B411"/>
-    <mergeCell ref="A431:B431"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="A310:B310"/>
-    <mergeCell ref="A315:B315"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="A232:B232"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F361B05-A100-478E-B2ED-0F8EFF71E84E}">
+  <dimension ref="A1:E69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIF(A:B, "TRUE")</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>COUNTIF(A:B, "FALSE")</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E6" s="8">
+        <f>E4/(E4+E5)</f>
+        <v>0.46969696969696972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A47" r:id="rId1" xr:uid="{198F68E9-FDDC-45B5-B2D6-C909A2DEFE7C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>